--- a/MINI_MIMUW_2014/materialy_z_wykladow_i_lab/mapy/wybory2014.xlsx
+++ b/MINI_MIMUW_2014/materialy_z_wykladow_i_lab/mapy/wybory2014.xlsx
@@ -615,7 +615,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
